--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pv\Desktop\EHS_Scrutinizer_Preview\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F12870-DBA6-46D8-ADDA-8B2676BE1818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6001A22-6D8C-4E15-84DC-B390C9542733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="69">
   <si>
     <r>
       <rPr>
@@ -205,11 +205,6 @@
     <t>&lt;1.8</t>
   </si>
   <si>
-    <t>调墨
-中间
-仓库</t>
-  </si>
-  <si>
     <t>调墨中间仓库操作位</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -266,6 +261,20 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>检测结果（mgm3）</t>
+  </si>
+  <si>
+    <t>PC-STEL/MAC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
     <t>调墨中间仓库</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -274,16 +283,46 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>检测结果（mgm3）</t>
-  </si>
-  <si>
-    <t>接触时间(hd)</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>PC-STEL/MAC</t>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接触时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="MingLiU-ExtB"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>(h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="MingLiU-ExtB"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>d)</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -291,7 +330,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,6 +423,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="MingLiU-ExtB"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -393,7 +446,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -475,11 +528,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -514,15 +591,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -536,6 +604,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -820,34 +909,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82:B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:9" ht="17.399999999999999">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1">
+      <c r="F2" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1">
-      <c r="F2" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="19"/>
-    </row>
-    <row r="3" spans="1:9" ht="41.4">
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="1:9" ht="13.8" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -861,13 +950,13 @@
         <v>3</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>5</v>
@@ -877,13 +966,13 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="18" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -905,16 +994,10 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="41.4">
-      <c r="A5" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>9</v>
-      </c>
+    <row r="5" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A5" s="19"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
@@ -934,16 +1017,10 @@
         <v>350</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="41.4">
-      <c r="A6" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>9</v>
-      </c>
+    <row r="6" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
@@ -963,16 +1040,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="41.4">
-      <c r="A7" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>9</v>
-      </c>
+    <row r="7" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
@@ -992,16 +1063,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="41.4">
-      <c r="A8" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>9</v>
-      </c>
+    <row r="8" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="4" t="s">
         <v>18</v>
       </c>
@@ -1021,16 +1086,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="41.4">
-      <c r="A9" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>9</v>
-      </c>
+    <row r="9" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="4" t="s">
         <v>19</v>
       </c>
@@ -1050,16 +1109,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="41.4">
-      <c r="A10" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>9</v>
-      </c>
+    <row r="10" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="4" t="s">
         <v>21</v>
       </c>
@@ -1079,16 +1132,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="41.4">
-      <c r="A11" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>9</v>
-      </c>
+    <row r="11" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="4" t="s">
         <v>23</v>
       </c>
@@ -1108,16 +1155,10 @@
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="41.4">
-      <c r="A12" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>9</v>
-      </c>
+    <row r="12" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="4" t="s">
         <v>25</v>
       </c>
@@ -1137,16 +1178,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="41.4">
-      <c r="A13" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>9</v>
-      </c>
+    <row r="13" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A13" s="19"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="4" t="s">
         <v>27</v>
       </c>
@@ -1156,20 +1191,22 @@
       <c r="F13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="5"/>
+      <c r="G13" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="H13" s="5">
         <v>1.65</v>
       </c>
-      <c r="I13" s="5"/>
+      <c r="I13" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A14" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="18" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -1191,16 +1228,10 @@
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="27.6">
-      <c r="A15" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>29</v>
-      </c>
+    <row r="15" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="4" t="s">
         <v>23</v>
       </c>
@@ -1220,16 +1251,10 @@
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="27.6">
-      <c r="A16" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>29</v>
-      </c>
+    <row r="16" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A16" s="19"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="4" t="s">
         <v>12</v>
       </c>
@@ -1249,16 +1274,10 @@
         <v>350</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="27.6">
-      <c r="A17" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>29</v>
-      </c>
+    <row r="17" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="4" t="s">
         <v>14</v>
       </c>
@@ -1278,16 +1297,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="27.6">
-      <c r="A18" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>29</v>
-      </c>
+    <row r="18" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A18" s="19"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="4" t="s">
         <v>18</v>
       </c>
@@ -1307,16 +1320,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="27.6">
-      <c r="A19" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>29</v>
-      </c>
+    <row r="19" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="4" t="s">
         <v>21</v>
       </c>
@@ -1336,16 +1343,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="27.6">
-      <c r="A20" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>29</v>
-      </c>
+    <row r="20" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="4" t="s">
         <v>19</v>
       </c>
@@ -1365,16 +1366,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="27.6">
-      <c r="A21" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>29</v>
-      </c>
+    <row r="21" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="4" t="s">
         <v>25</v>
       </c>
@@ -1394,16 +1389,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="27.6">
-      <c r="A22" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>29</v>
-      </c>
+    <row r="22" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A22" s="19"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="4" t="s">
         <v>27</v>
       </c>
@@ -1413,20 +1402,22 @@
       <c r="F22" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="H22" s="5">
         <v>1.65</v>
       </c>
-      <c r="I22" s="5"/>
+      <c r="I22" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="23" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A23" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="19"/>
+      <c r="B23" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="18" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="4" t="s">
@@ -1448,16 +1439,10 @@
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="27.6">
-      <c r="A24" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>32</v>
-      </c>
+    <row r="24" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="4" t="s">
         <v>12</v>
       </c>
@@ -1477,16 +1462,10 @@
         <v>350</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="27.6">
-      <c r="A25" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>32</v>
-      </c>
+    <row r="25" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="4" t="s">
         <v>14</v>
       </c>
@@ -1506,16 +1485,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="27.6">
-      <c r="A26" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>32</v>
-      </c>
+    <row r="26" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
       <c r="D26" s="4" t="s">
         <v>16</v>
       </c>
@@ -1535,16 +1508,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="27.6">
-      <c r="A27" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>32</v>
-      </c>
+    <row r="27" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A27" s="19"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="4" t="s">
         <v>18</v>
       </c>
@@ -1564,16 +1531,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="27.6">
-      <c r="A28" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>32</v>
-      </c>
+    <row r="28" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A28" s="19"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
       <c r="D28" s="4" t="s">
         <v>19</v>
       </c>
@@ -1593,16 +1554,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="27.6">
-      <c r="A29" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>32</v>
-      </c>
+    <row r="29" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A29" s="19"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
       <c r="D29" s="4" t="s">
         <v>21</v>
       </c>
@@ -1622,16 +1577,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="27.6">
-      <c r="A30" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>32</v>
-      </c>
+    <row r="30" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A30" s="19"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="4" t="s">
         <v>25</v>
       </c>
@@ -1651,16 +1600,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="27.6">
-      <c r="A31" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>32</v>
-      </c>
+    <row r="31" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A31" s="19"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
       <c r="D31" s="4" t="s">
         <v>27</v>
       </c>
@@ -1670,22 +1613,20 @@
       <c r="F31" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G31" s="5"/>
+      <c r="G31" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="H31" s="5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I31" s="5"/>
-    </row>
-    <row r="32" spans="1:9" ht="27.6">
-      <c r="A32" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="I31" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A32" s="19"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
       <c r="D32" s="4" t="s">
         <v>23</v>
       </c>
@@ -1706,13 +1647,11 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A33" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="12" t="s">
+      <c r="A33" s="19"/>
+      <c r="B33" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D33" s="4" t="s">
@@ -1734,16 +1673,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="27.6">
-      <c r="A34" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>36</v>
-      </c>
+    <row r="34" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A34" s="19"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
       <c r="D34" s="4" t="s">
         <v>14</v>
       </c>
@@ -1763,16 +1696,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="27.6">
-      <c r="A35" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>36</v>
-      </c>
+    <row r="35" spans="1:9" ht="14.4" customHeight="1">
+      <c r="A35" s="19"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
       <c r="D35" s="4" t="s">
         <v>38</v>
       </c>
@@ -1782,20 +1709,22 @@
       <c r="F35" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G35" s="6"/>
+      <c r="G35" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="H35" s="6">
         <v>0.27500000000000002</v>
       </c>
-      <c r="I35" s="6"/>
+      <c r="I35" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="36" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A36" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="12" t="s">
+      <c r="A36" s="19"/>
+      <c r="B36" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="18" t="s">
         <v>40</v>
       </c>
       <c r="D36" s="4" t="s">
@@ -1817,16 +1746,10 @@
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="27.6">
-      <c r="A37" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>40</v>
-      </c>
+    <row r="37" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A37" s="19"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
       <c r="D37" s="7" t="s">
         <v>42</v>
       </c>
@@ -1846,16 +1769,10 @@
         <v>350</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="27.6">
-      <c r="A38" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>40</v>
-      </c>
+    <row r="38" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A38" s="19"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
       <c r="D38" s="4" t="s">
         <v>14</v>
       </c>
@@ -1875,16 +1792,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="27.6">
-      <c r="A39" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>40</v>
-      </c>
+    <row r="39" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A39" s="19"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
       <c r="D39" s="4" t="s">
         <v>16</v>
       </c>
@@ -1904,16 +1815,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="27.6">
-      <c r="A40" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>40</v>
-      </c>
+    <row r="40" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A40" s="19"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
       <c r="D40" s="4" t="s">
         <v>18</v>
       </c>
@@ -1933,16 +1838,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="27.6">
-      <c r="A41" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>40</v>
-      </c>
+    <row r="41" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A41" s="19"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
       <c r="D41" s="4" t="s">
         <v>19</v>
       </c>
@@ -1962,16 +1861,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="27.6">
-      <c r="A42" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>40</v>
-      </c>
+    <row r="42" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A42" s="19"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
       <c r="D42" s="4" t="s">
         <v>21</v>
       </c>
@@ -1991,16 +1884,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="27.6">
-      <c r="A43" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>40</v>
-      </c>
+    <row r="43" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A43" s="19"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
       <c r="D43" s="4" t="s">
         <v>25</v>
       </c>
@@ -2020,16 +1907,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="27.6">
-      <c r="A44" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>40</v>
-      </c>
+    <row r="44" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A44" s="19"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
       <c r="D44" s="4" t="s">
         <v>27</v>
       </c>
@@ -2039,22 +1920,20 @@
       <c r="F44" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G44" s="6"/>
+      <c r="G44" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="H44" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I44" s="6"/>
-    </row>
-    <row r="45" spans="1:9" ht="27.6">
-      <c r="A45" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>40</v>
-      </c>
+      <c r="I44" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A45" s="19"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
       <c r="D45" s="4" t="s">
         <v>23</v>
       </c>
@@ -2075,14 +1954,12 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A46" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" s="14" t="s">
+      <c r="A46" s="19"/>
+      <c r="B46" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" s="22" t="s">
         <v>45</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>46</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>10</v>
@@ -2104,15 +1981,9 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A47" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>46</v>
-      </c>
+      <c r="A47" s="19"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
       <c r="D47" s="4" t="s">
         <v>12</v>
       </c>
@@ -2120,7 +1991,7 @@
         <v>4</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G47" s="6">
         <v>700</v>
@@ -2133,15 +2004,9 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A48" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>46</v>
-      </c>
+      <c r="A48" s="19"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
       <c r="D48" s="4" t="s">
         <v>14</v>
       </c>
@@ -2162,15 +2027,9 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A49" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>46</v>
-      </c>
+      <c r="A49" s="19"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
       <c r="D49" s="4" t="s">
         <v>16</v>
       </c>
@@ -2191,15 +2050,9 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A50" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>46</v>
-      </c>
+      <c r="A50" s="19"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
       <c r="D50" s="4" t="s">
         <v>18</v>
       </c>
@@ -2220,15 +2073,9 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A51" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>46</v>
-      </c>
+      <c r="A51" s="19"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
       <c r="D51" s="4" t="s">
         <v>19</v>
       </c>
@@ -2249,15 +2096,9 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A52" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>46</v>
-      </c>
+      <c r="A52" s="19"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
       <c r="D52" s="4" t="s">
         <v>21</v>
       </c>
@@ -2278,15 +2119,9 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A53" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>46</v>
-      </c>
+      <c r="A53" s="19"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
       <c r="D53" s="4" t="s">
         <v>25</v>
       </c>
@@ -2306,16 +2141,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="43.2">
-      <c r="A54" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>46</v>
-      </c>
+    <row r="54" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A54" s="19"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
       <c r="D54" s="4" t="s">
         <v>27</v>
       </c>
@@ -2325,22 +2154,20 @@
       <c r="F54" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G54" s="6"/>
+      <c r="G54" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="H54" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I54" s="6"/>
+      <c r="I54" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="55" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A55" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>46</v>
-      </c>
+      <c r="A55" s="23"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
       <c r="D55" s="4" t="s">
         <v>23</v>
       </c>
@@ -2361,14 +2188,14 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="C56" s="18" t="s">
         <v>49</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>50</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>19</v>
@@ -2389,18 +2216,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="27.6">
-      <c r="A57" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>50</v>
-      </c>
+    <row r="57" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A57" s="19"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
       <c r="D57" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E57" s="5">
         <v>1</v>
@@ -2409,7 +2230,7 @@
         <v>17</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H57" s="5">
         <v>2.1000000000000001E-2</v>
@@ -2418,16 +2239,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="27.6">
-      <c r="A58" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>50</v>
-      </c>
+    <row r="58" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A58" s="19"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
       <c r="D58" s="4" t="s">
         <v>25</v>
       </c>
@@ -2447,38 +2262,36 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="27.6">
-      <c r="A59" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>50</v>
-      </c>
+    <row r="59" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A59" s="19"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
       <c r="D59" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E59" s="5">
         <v>1</v>
       </c>
       <c r="F59" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A60" s="19"/>
+      <c r="B60" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" s="18" t="s">
         <v>53</v>
-      </c>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-    </row>
-    <row r="60" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A60" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>54</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>10</v>
@@ -2499,16 +2312,10 @@
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="27.6">
-      <c r="A61" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>54</v>
-      </c>
+    <row r="61" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A61" s="19"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
       <c r="D61" s="4" t="s">
         <v>12</v>
       </c>
@@ -2516,7 +2323,7 @@
         <v>6</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G61" s="6">
         <v>700</v>
@@ -2528,16 +2335,10 @@
         <v>350</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="27.6">
-      <c r="A62" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>54</v>
-      </c>
+    <row r="62" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A62" s="19"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
       <c r="D62" s="4" t="s">
         <v>23</v>
       </c>
@@ -2557,16 +2358,10 @@
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="27.6">
-      <c r="A63" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>54</v>
-      </c>
+    <row r="63" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A63" s="19"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
       <c r="D63" s="4" t="s">
         <v>14</v>
       </c>
@@ -2586,16 +2381,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="27.6">
-      <c r="A64" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>54</v>
-      </c>
+    <row r="64" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A64" s="19"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
       <c r="D64" s="4" t="s">
         <v>19</v>
       </c>
@@ -2615,16 +2404,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="27.6">
-      <c r="A65" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>54</v>
-      </c>
+    <row r="65" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A65" s="19"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
       <c r="D65" s="4" t="s">
         <v>21</v>
       </c>
@@ -2644,16 +2427,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="27.6">
-      <c r="A66" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>54</v>
-      </c>
+    <row r="66" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A66" s="19"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
       <c r="D66" s="4" t="s">
         <v>25</v>
       </c>
@@ -2673,16 +2450,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="27.6">
-      <c r="A67" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>54</v>
-      </c>
+    <row r="67" spans="1:9" ht="28.8" customHeight="1">
+      <c r="A67" s="19"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
       <c r="D67" s="4" t="s">
         <v>18</v>
       </c>
@@ -2702,16 +2473,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="27.6">
-      <c r="A68" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>54</v>
-      </c>
+    <row r="68" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A68" s="23"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
       <c r="D68" s="4" t="s">
         <v>27</v>
       </c>
@@ -2721,24 +2486,28 @@
       <c r="F68" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G68" s="6"/>
+      <c r="G68" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="H68" s="6">
         <v>1.65</v>
       </c>
-      <c r="I68" s="6"/>
+      <c r="I68" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="69" spans="1:9" ht="28.8" customHeight="1">
-      <c r="A69" s="13" t="s">
-        <v>64</v>
+      <c r="A69" s="22" t="s">
+        <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C69" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="D69" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="E69" s="5">
         <v>0.1</v>
@@ -2757,14 +2526,12 @@
       </c>
     </row>
     <row r="70" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A70" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B70" s="14" t="s">
+      <c r="A70" s="19"/>
+      <c r="B70" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C70" s="22" t="s">
         <v>58</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>10</v>
@@ -2786,15 +2553,9 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A71" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B71" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>59</v>
-      </c>
+      <c r="A71" s="19"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
       <c r="D71" s="4" t="s">
         <v>12</v>
       </c>
@@ -2802,7 +2563,7 @@
         <v>1</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G71" s="6">
         <v>700</v>
@@ -2815,15 +2576,9 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A72" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B72" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>59</v>
-      </c>
+      <c r="A72" s="19"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
       <c r="D72" s="4" t="s">
         <v>14</v>
       </c>
@@ -2844,15 +2599,9 @@
       </c>
     </row>
     <row r="73" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A73" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B73" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C73" s="13" t="s">
-        <v>59</v>
-      </c>
+      <c r="A73" s="19"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
       <c r="D73" s="4" t="s">
         <v>18</v>
       </c>
@@ -2873,15 +2622,9 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A74" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B74" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C74" s="13" t="s">
-        <v>59</v>
-      </c>
+      <c r="A74" s="19"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
       <c r="D74" s="4" t="s">
         <v>16</v>
       </c>
@@ -2902,15 +2645,9 @@
       </c>
     </row>
     <row r="75" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A75" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B75" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C75" s="13" t="s">
-        <v>59</v>
-      </c>
+      <c r="A75" s="19"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="19"/>
       <c r="D75" s="4" t="s">
         <v>21</v>
       </c>
@@ -2931,15 +2668,9 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A76" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B76" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>59</v>
-      </c>
+      <c r="A76" s="19"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
       <c r="D76" s="4" t="s">
         <v>25</v>
       </c>
@@ -2960,15 +2691,9 @@
       </c>
     </row>
     <row r="77" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A77" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B77" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C77" s="13" t="s">
-        <v>59</v>
-      </c>
+      <c r="A77" s="19"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="19"/>
       <c r="D77" s="4" t="s">
         <v>19</v>
       </c>
@@ -2989,15 +2714,9 @@
       </c>
     </row>
     <row r="78" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A78" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B78" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C78" s="13" t="s">
-        <v>59</v>
-      </c>
+      <c r="A78" s="19"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="19"/>
       <c r="D78" s="4" t="s">
         <v>23</v>
       </c>
@@ -3018,40 +2737,34 @@
       </c>
     </row>
     <row r="79" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A79" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B79" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C79" s="13" t="s">
-        <v>59</v>
-      </c>
+      <c r="A79" s="19"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
       <c r="D79" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E79" s="5">
         <v>1</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="80" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A80" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B80" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C80" s="13" t="s">
-        <v>59</v>
-      </c>
+      <c r="A80" s="19"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="19"/>
       <c r="D80" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E80" s="5">
         <v>1</v>
@@ -3060,7 +2773,7 @@
         <v>17</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H80" s="5">
         <v>2.1000000000000001E-2</v>
@@ -3069,16 +2782,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="30">
-      <c r="A81" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B81" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C81" s="13" t="s">
-        <v>59</v>
-      </c>
+    <row r="81" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A81" s="19"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="23"/>
       <c r="D81" s="4" t="s">
         <v>27</v>
       </c>
@@ -3088,21 +2795,23 @@
       <c r="F81" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G81" s="6"/>
+      <c r="G81" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="H81" s="6">
         <v>0.27500000000000002</v>
       </c>
-      <c r="I81" s="6"/>
+      <c r="I81" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="82" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A82" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B82" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C82" s="13" t="s">
+      <c r="A82" s="19"/>
+      <c r="B82" s="18" t="s">
         <v>59</v>
+      </c>
+      <c r="C82" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>10</v>
@@ -3123,16 +2832,10 @@
         <v>300</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="28.8">
-      <c r="A83" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B83" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C83" s="13" t="s">
-        <v>59</v>
-      </c>
+    <row r="83" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A83" s="19"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="20"/>
       <c r="D83" s="4" t="s">
         <v>12</v>
       </c>
@@ -3140,7 +2843,7 @@
         <v>1</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G83" s="6">
         <v>700</v>
@@ -3152,16 +2855,10 @@
         <v>350</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="28.8">
-      <c r="A84" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B84" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C84" s="13" t="s">
-        <v>59</v>
-      </c>
+    <row r="84" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A84" s="19"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="20"/>
       <c r="D84" s="4" t="s">
         <v>14</v>
       </c>
@@ -3181,16 +2878,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="28.8">
-      <c r="A85" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B85" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C85" s="13" t="s">
-        <v>59</v>
-      </c>
+    <row r="85" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A85" s="19"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="20"/>
       <c r="D85" s="4" t="s">
         <v>18</v>
       </c>
@@ -3210,16 +2901,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="28.8">
-      <c r="A86" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B86" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C86" s="13" t="s">
-        <v>59</v>
-      </c>
+    <row r="86" spans="1:9" ht="14.4" customHeight="1">
+      <c r="A86" s="19"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="20"/>
       <c r="D86" s="4" t="s">
         <v>16</v>
       </c>
@@ -3239,16 +2924,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="28.8">
-      <c r="A87" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B87" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C87" s="13" t="s">
-        <v>59</v>
-      </c>
+    <row r="87" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A87" s="19"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="20"/>
       <c r="D87" s="4" t="s">
         <v>19</v>
       </c>
@@ -3268,18 +2947,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="28.8">
-      <c r="A88" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B88" s="12" t="s">
+    <row r="88" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A88" s="19"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="C88" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="E88" s="6">
         <v>1</v>
@@ -3297,16 +2970,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="28.8">
-      <c r="A89" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B89" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C89" s="13" t="s">
-        <v>59</v>
-      </c>
+    <row r="89" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A89" s="19"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="20"/>
       <c r="D89" s="4" t="s">
         <v>25</v>
       </c>
@@ -3326,16 +2993,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="28.8">
-      <c r="A90" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B90" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C90" s="13" t="s">
-        <v>59</v>
-      </c>
+    <row r="90" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A90" s="19"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="20"/>
       <c r="D90" s="4" t="s">
         <v>27</v>
       </c>
@@ -3345,24 +3006,22 @@
       <c r="F90" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G90" s="6"/>
+      <c r="G90" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="H90" s="6">
         <v>0.27500000000000002</v>
       </c>
-      <c r="I90" s="6"/>
-    </row>
-    <row r="91" spans="1:9" ht="28.8">
-      <c r="A91" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B91" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C91" s="13" t="s">
-        <v>59</v>
-      </c>
+      <c r="I90" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A91" s="19"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="20"/>
       <c r="D91" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E91" s="5">
         <v>1</v>
@@ -3371,7 +3030,7 @@
         <v>17</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H91" s="5">
         <v>2.1000000000000001E-2</v>
@@ -3380,16 +3039,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="28.8">
-      <c r="A92" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B92" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C92" s="13" t="s">
-        <v>59</v>
-      </c>
+    <row r="92" spans="1:9" ht="13.8" customHeight="1">
+      <c r="A92" s="19"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="20"/>
       <c r="D92" s="4" t="s">
         <v>23</v>
       </c>
@@ -3409,31 +3062,54 @@
         <v>300</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="27.6">
-      <c r="A93" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>59</v>
-      </c>
+    <row r="93" spans="1:9">
+      <c r="A93" s="23"/>
+      <c r="B93" s="21"/>
+      <c r="C93" s="21"/>
       <c r="D93" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E93" s="5">
         <v>1</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="25">
+    <mergeCell ref="C36:C45"/>
+    <mergeCell ref="B46:B55"/>
+    <mergeCell ref="C46:C55"/>
+    <mergeCell ref="A56:A68"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="B60:B68"/>
+    <mergeCell ref="C60:C68"/>
+    <mergeCell ref="A4:A55"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="C4:C13"/>
+    <mergeCell ref="B14:B22"/>
+    <mergeCell ref="C14:C22"/>
+    <mergeCell ref="B23:B32"/>
+    <mergeCell ref="C23:C32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="B36:B45"/>
+    <mergeCell ref="A69:A93"/>
+    <mergeCell ref="B70:B81"/>
+    <mergeCell ref="C70:C81"/>
+    <mergeCell ref="B82:B93"/>
+    <mergeCell ref="C82:C93"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="F2:I2"/>
   </mergeCells>

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pv\Desktop\EHS_Scrutinizer_Preview\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6001A22-6D8C-4E15-84DC-B390C9542733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA10C11-FE68-4366-81E9-ACF955BC1CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -606,13 +606,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -624,7 +618,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -909,11 +909,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82:B93"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="7" max="7" width="18.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.399999999999999">
       <c r="A1" s="12" t="s">
@@ -966,13 +969,13 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -995,9 +998,9 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
@@ -1018,9 +1021,9 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
@@ -1041,9 +1044,9 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1064,9 +1067,9 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="4" t="s">
         <v>18</v>
       </c>
@@ -1087,9 +1090,9 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="4" t="s">
         <v>19</v>
       </c>
@@ -1110,9 +1113,9 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="4" t="s">
         <v>21</v>
       </c>
@@ -1133,9 +1136,9 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="4" t="s">
         <v>23</v>
       </c>
@@ -1156,9 +1159,9 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
       <c r="D12" s="4" t="s">
         <v>25</v>
       </c>
@@ -1179,9 +1182,9 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A13" s="19"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="4" t="s">
         <v>27</v>
       </c>
@@ -1202,11 +1205,11 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A14" s="19"/>
-      <c r="B14" s="18" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -1229,9 +1232,9 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="4" t="s">
         <v>23</v>
       </c>
@@ -1252,9 +1255,9 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="4" t="s">
         <v>12</v>
       </c>
@@ -1275,9 +1278,9 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="4" t="s">
         <v>14</v>
       </c>
@@ -1298,9 +1301,9 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
       <c r="D18" s="4" t="s">
         <v>18</v>
       </c>
@@ -1321,9 +1324,9 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="4" t="s">
         <v>21</v>
       </c>
@@ -1344,9 +1347,9 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="4" t="s">
         <v>19</v>
       </c>
@@ -1367,9 +1370,9 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A21" s="19"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="4" t="s">
         <v>25</v>
       </c>
@@ -1390,9 +1393,9 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A22" s="19"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="4" t="s">
         <v>27</v>
       </c>
@@ -1413,11 +1416,11 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A23" s="19"/>
-      <c r="B23" s="18" t="s">
+      <c r="A23" s="21"/>
+      <c r="B23" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="4" t="s">
@@ -1440,9 +1443,9 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A24" s="19"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="4" t="s">
         <v>12</v>
       </c>
@@ -1463,9 +1466,9 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
       <c r="D25" s="4" t="s">
         <v>14</v>
       </c>
@@ -1486,9 +1489,9 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A26" s="19"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
       <c r="D26" s="4" t="s">
         <v>16</v>
       </c>
@@ -1509,9 +1512,9 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A27" s="19"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="4" t="s">
         <v>18</v>
       </c>
@@ -1532,9 +1535,9 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A28" s="19"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="4" t="s">
         <v>19</v>
       </c>
@@ -1555,9 +1558,9 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A29" s="19"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="4" t="s">
         <v>21</v>
       </c>
@@ -1578,9 +1581,9 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A30" s="19"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="4" t="s">
         <v>25</v>
       </c>
@@ -1601,9 +1604,9 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A31" s="19"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="4" t="s">
         <v>27</v>
       </c>
@@ -1624,9 +1627,9 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A32" s="19"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
       <c r="D32" s="4" t="s">
         <v>23</v>
       </c>
@@ -1647,11 +1650,11 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A33" s="19"/>
-      <c r="B33" s="18" t="s">
+      <c r="A33" s="21"/>
+      <c r="B33" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="17" t="s">
         <v>36</v>
       </c>
       <c r="D33" s="4" t="s">
@@ -1674,9 +1677,9 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A34" s="19"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
       <c r="D34" s="4" t="s">
         <v>14</v>
       </c>
@@ -1697,9 +1700,9 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.4" customHeight="1">
-      <c r="A35" s="19"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="4" t="s">
         <v>38</v>
       </c>
@@ -1720,11 +1723,11 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A36" s="19"/>
-      <c r="B36" s="18" t="s">
+      <c r="A36" s="21"/>
+      <c r="B36" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="17" t="s">
         <v>40</v>
       </c>
       <c r="D36" s="4" t="s">
@@ -1747,9 +1750,9 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A37" s="19"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="7" t="s">
         <v>42</v>
       </c>
@@ -1770,9 +1773,9 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A38" s="19"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
       <c r="D38" s="4" t="s">
         <v>14</v>
       </c>
@@ -1793,9 +1796,9 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A39" s="19"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
       <c r="D39" s="4" t="s">
         <v>16</v>
       </c>
@@ -1816,9 +1819,9 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A40" s="19"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
       <c r="D40" s="4" t="s">
         <v>18</v>
       </c>
@@ -1839,9 +1842,9 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A41" s="19"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
       <c r="D41" s="4" t="s">
         <v>19</v>
       </c>
@@ -1862,9 +1865,9 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A42" s="19"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
       <c r="D42" s="4" t="s">
         <v>21</v>
       </c>
@@ -1885,9 +1888,9 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A43" s="19"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="4" t="s">
         <v>25</v>
       </c>
@@ -1908,9 +1911,9 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A44" s="19"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="4" t="s">
         <v>27</v>
       </c>
@@ -1931,9 +1934,9 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A45" s="19"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="4" t="s">
         <v>23</v>
       </c>
@@ -1954,11 +1957,11 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A46" s="19"/>
-      <c r="B46" s="22" t="s">
+      <c r="A46" s="21"/>
+      <c r="B46" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C46" s="20" t="s">
         <v>45</v>
       </c>
       <c r="D46" s="4" t="s">
@@ -1981,9 +1984,9 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A47" s="19"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
       <c r="D47" s="4" t="s">
         <v>12</v>
       </c>
@@ -2004,9 +2007,9 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A48" s="19"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
       <c r="D48" s="4" t="s">
         <v>14</v>
       </c>
@@ -2027,9 +2030,9 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A49" s="19"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
       <c r="D49" s="4" t="s">
         <v>16</v>
       </c>
@@ -2050,9 +2053,9 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A50" s="19"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
       <c r="D50" s="4" t="s">
         <v>18</v>
       </c>
@@ -2073,9 +2076,9 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A51" s="19"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
       <c r="D51" s="4" t="s">
         <v>19</v>
       </c>
@@ -2096,9 +2099,9 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A52" s="19"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
       <c r="D52" s="4" t="s">
         <v>21</v>
       </c>
@@ -2119,9 +2122,9 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A53" s="19"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
       <c r="D53" s="4" t="s">
         <v>25</v>
       </c>
@@ -2142,9 +2145,9 @@
       </c>
     </row>
     <row r="54" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A54" s="19"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
+      <c r="A54" s="21"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
       <c r="D54" s="4" t="s">
         <v>27</v>
       </c>
@@ -2165,9 +2168,9 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A55" s="23"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
+      <c r="A55" s="22"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
       <c r="D55" s="4" t="s">
         <v>23</v>
       </c>
@@ -2188,13 +2191,13 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C56" s="17" t="s">
         <v>49</v>
       </c>
       <c r="D56" s="4" t="s">
@@ -2217,9 +2220,9 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A57" s="19"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="20"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
       <c r="D57" s="4" t="s">
         <v>50</v>
       </c>
@@ -2240,9 +2243,9 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A58" s="19"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
       <c r="D58" s="4" t="s">
         <v>25</v>
       </c>
@@ -2263,9 +2266,9 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A59" s="19"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
       <c r="D59" s="4" t="s">
         <v>51</v>
       </c>
@@ -2286,11 +2289,11 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A60" s="19"/>
-      <c r="B60" s="18" t="s">
+      <c r="A60" s="21"/>
+      <c r="B60" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="C60" s="17" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="4" t="s">
@@ -2313,9 +2316,9 @@
       </c>
     </row>
     <row r="61" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A61" s="19"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="20"/>
+      <c r="A61" s="21"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
       <c r="D61" s="4" t="s">
         <v>12</v>
       </c>
@@ -2336,9 +2339,9 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A62" s="19"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="20"/>
+      <c r="A62" s="21"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
       <c r="D62" s="4" t="s">
         <v>23</v>
       </c>
@@ -2359,9 +2362,9 @@
       </c>
     </row>
     <row r="63" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A63" s="19"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="20"/>
+      <c r="A63" s="21"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
       <c r="D63" s="4" t="s">
         <v>14</v>
       </c>
@@ -2382,9 +2385,9 @@
       </c>
     </row>
     <row r="64" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A64" s="19"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
       <c r="D64" s="4" t="s">
         <v>19</v>
       </c>
@@ -2405,9 +2408,9 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A65" s="19"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="20"/>
+      <c r="A65" s="21"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
       <c r="D65" s="4" t="s">
         <v>21</v>
       </c>
@@ -2428,9 +2431,9 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A66" s="19"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="20"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
       <c r="D66" s="4" t="s">
         <v>25</v>
       </c>
@@ -2451,9 +2454,9 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="28.8" customHeight="1">
-      <c r="A67" s="19"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="20"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
       <c r="D67" s="4" t="s">
         <v>18</v>
       </c>
@@ -2474,9 +2477,9 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A68" s="23"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="21"/>
+      <c r="A68" s="22"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
       <c r="D68" s="4" t="s">
         <v>27</v>
       </c>
@@ -2497,7 +2500,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" ht="28.8" customHeight="1">
-      <c r="A69" s="22" t="s">
+      <c r="A69" s="20" t="s">
         <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -2526,11 +2529,11 @@
       </c>
     </row>
     <row r="70" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A70" s="19"/>
-      <c r="B70" s="17" t="s">
+      <c r="A70" s="21"/>
+      <c r="B70" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C70" s="22" t="s">
+      <c r="C70" s="20" t="s">
         <v>58</v>
       </c>
       <c r="D70" s="4" t="s">
@@ -2553,9 +2556,9 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A71" s="19"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
+      <c r="A71" s="21"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="21"/>
       <c r="D71" s="4" t="s">
         <v>12</v>
       </c>
@@ -2576,9 +2579,9 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A72" s="19"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
+      <c r="A72" s="21"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="21"/>
       <c r="D72" s="4" t="s">
         <v>14</v>
       </c>
@@ -2599,9 +2602,9 @@
       </c>
     </row>
     <row r="73" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A73" s="19"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
+      <c r="A73" s="21"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="21"/>
       <c r="D73" s="4" t="s">
         <v>18</v>
       </c>
@@ -2622,9 +2625,9 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A74" s="19"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
+      <c r="A74" s="21"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="21"/>
       <c r="D74" s="4" t="s">
         <v>16</v>
       </c>
@@ -2645,9 +2648,9 @@
       </c>
     </row>
     <row r="75" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A75" s="19"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
+      <c r="A75" s="21"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="21"/>
       <c r="D75" s="4" t="s">
         <v>21</v>
       </c>
@@ -2668,9 +2671,9 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A76" s="19"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
+      <c r="A76" s="21"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="21"/>
       <c r="D76" s="4" t="s">
         <v>25</v>
       </c>
@@ -2691,9 +2694,9 @@
       </c>
     </row>
     <row r="77" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A77" s="19"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="19"/>
+      <c r="A77" s="21"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="21"/>
       <c r="D77" s="4" t="s">
         <v>19</v>
       </c>
@@ -2714,9 +2717,9 @@
       </c>
     </row>
     <row r="78" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A78" s="19"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="19"/>
+      <c r="A78" s="21"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="21"/>
       <c r="D78" s="4" t="s">
         <v>23</v>
       </c>
@@ -2737,9 +2740,9 @@
       </c>
     </row>
     <row r="79" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A79" s="19"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="19"/>
+      <c r="A79" s="21"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="21"/>
       <c r="D79" s="4" t="s">
         <v>51</v>
       </c>
@@ -2760,9 +2763,9 @@
       </c>
     </row>
     <row r="80" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A80" s="19"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="19"/>
+      <c r="A80" s="21"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="21"/>
       <c r="D80" s="4" t="s">
         <v>50</v>
       </c>
@@ -2783,9 +2786,9 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A81" s="19"/>
-      <c r="B81" s="23"/>
-      <c r="C81" s="23"/>
+      <c r="A81" s="21"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="22"/>
       <c r="D81" s="4" t="s">
         <v>27</v>
       </c>
@@ -2806,11 +2809,11 @@
       </c>
     </row>
     <row r="82" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A82" s="19"/>
-      <c r="B82" s="18" t="s">
+      <c r="A82" s="21"/>
+      <c r="B82" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C82" s="22" t="s">
+      <c r="C82" s="20" t="s">
         <v>58</v>
       </c>
       <c r="D82" s="4" t="s">
@@ -2833,9 +2836,9 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A83" s="19"/>
-      <c r="B83" s="20"/>
-      <c r="C83" s="20"/>
+      <c r="A83" s="21"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
       <c r="D83" s="4" t="s">
         <v>12</v>
       </c>
@@ -2856,9 +2859,9 @@
       </c>
     </row>
     <row r="84" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A84" s="19"/>
-      <c r="B84" s="20"/>
-      <c r="C84" s="20"/>
+      <c r="A84" s="21"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
       <c r="D84" s="4" t="s">
         <v>14</v>
       </c>
@@ -2879,9 +2882,9 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A85" s="19"/>
-      <c r="B85" s="20"/>
-      <c r="C85" s="20"/>
+      <c r="A85" s="21"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="18"/>
       <c r="D85" s="4" t="s">
         <v>18</v>
       </c>
@@ -2902,9 +2905,9 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="14.4" customHeight="1">
-      <c r="A86" s="19"/>
-      <c r="B86" s="20"/>
-      <c r="C86" s="20"/>
+      <c r="A86" s="21"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="18"/>
       <c r="D86" s="4" t="s">
         <v>16</v>
       </c>
@@ -2925,9 +2928,9 @@
       </c>
     </row>
     <row r="87" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A87" s="19"/>
-      <c r="B87" s="20"/>
-      <c r="C87" s="20"/>
+      <c r="A87" s="21"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
       <c r="D87" s="4" t="s">
         <v>19</v>
       </c>
@@ -2948,9 +2951,9 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A88" s="19"/>
-      <c r="B88" s="20"/>
-      <c r="C88" s="20"/>
+      <c r="A88" s="21"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
       <c r="D88" s="7" t="s">
         <v>60</v>
       </c>
@@ -2971,9 +2974,9 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A89" s="19"/>
-      <c r="B89" s="20"/>
-      <c r="C89" s="20"/>
+      <c r="A89" s="21"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="18"/>
       <c r="D89" s="4" t="s">
         <v>25</v>
       </c>
@@ -2994,9 +2997,9 @@
       </c>
     </row>
     <row r="90" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A90" s="19"/>
-      <c r="B90" s="20"/>
-      <c r="C90" s="20"/>
+      <c r="A90" s="21"/>
+      <c r="B90" s="18"/>
+      <c r="C90" s="18"/>
       <c r="D90" s="4" t="s">
         <v>27</v>
       </c>
@@ -3017,9 +3020,9 @@
       </c>
     </row>
     <row r="91" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A91" s="19"/>
-      <c r="B91" s="20"/>
-      <c r="C91" s="20"/>
+      <c r="A91" s="21"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="18"/>
       <c r="D91" s="4" t="s">
         <v>50</v>
       </c>
@@ -3040,9 +3043,9 @@
       </c>
     </row>
     <row r="92" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A92" s="19"/>
-      <c r="B92" s="20"/>
-      <c r="C92" s="20"/>
+      <c r="A92" s="21"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
       <c r="D92" s="4" t="s">
         <v>23</v>
       </c>
@@ -3063,9 +3066,9 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="23"/>
-      <c r="B93" s="21"/>
-      <c r="C93" s="21"/>
+      <c r="A93" s="22"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="19"/>
       <c r="D93" s="4" t="s">
         <v>51</v>
       </c>
@@ -3087,13 +3090,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C36:C45"/>
-    <mergeCell ref="B46:B55"/>
-    <mergeCell ref="C46:C55"/>
-    <mergeCell ref="A56:A68"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="B60:B68"/>
     <mergeCell ref="C60:C68"/>
     <mergeCell ref="A4:A55"/>
     <mergeCell ref="B4:B13"/>
@@ -3103,6 +3099,8 @@
     <mergeCell ref="B23:B32"/>
     <mergeCell ref="C23:C32"/>
     <mergeCell ref="B33:B35"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="F2:I2"/>
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="B36:B45"/>
     <mergeCell ref="A69:A93"/>
@@ -3110,8 +3108,13 @@
     <mergeCell ref="C70:C81"/>
     <mergeCell ref="B82:B93"/>
     <mergeCell ref="C82:C93"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="C36:C45"/>
+    <mergeCell ref="B46:B55"/>
+    <mergeCell ref="C46:C55"/>
+    <mergeCell ref="A56:A68"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="B60:B68"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pv\Desktop\EHS_Scrutinizer_Preview\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA10C11-FE68-4366-81E9-ACF955BC1CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79093996-F12C-4AC6-B518-12E520BBE41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="检测结果-化学因素" sheetId="1" r:id="rId1"/>
+    <sheet name="检测结果-噪声" sheetId="2" r:id="rId2"/>
+    <sheet name="检测结果-高温" sheetId="3" r:id="rId3"/>
+    <sheet name="检测结果-工频电场" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="110">
   <si>
     <r>
       <rPr>
@@ -325,12 +328,317 @@
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>单元名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测点</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>接触时间（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="仿宋_GB2312"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>检测值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>dB(A)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>等效声级</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>dB(A)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>7号厂房</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>凹版</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3号/4号凹印机操作位</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂布</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂布2号机操作位</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>打样</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>打样操作位</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>干燥机</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>干燥机操作位</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>8号厂房</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>丝印</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>丝印操作位</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂布1号机操作位</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>空压机房</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>空压机巡检位</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTO燃烧炉</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>废气处理巡检位</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>危废仓库</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">接触时间
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(h/d)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>接触时间率
+(%)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>劳动强度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>检测结果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(℃)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>工频电场检测结果一览表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>频率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Hz)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>接触时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(h)</t>
+    </r>
+  </si>
+  <si>
+    <t>检测部位</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电场强度测定值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(V/m)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="仿宋_GB2312"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时间加权平均值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(kV/m)</t>
+    </r>
+  </si>
+  <si>
+    <t>配电房</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>配电房巡检位</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>头、胸、腹</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测结果-噪声</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测结果-高温</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,6 +745,20 @@
       <family val="1"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="仿宋_GB2312"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -446,7 +768,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -552,11 +874,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -591,6 +963,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -606,25 +996,37 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -909,8 +1311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -919,25 +1321,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.399999999999999">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1">
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" ht="13.8" customHeight="1">
       <c r="A3" s="10" t="s">
@@ -969,13 +1371,13 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -998,9 +1400,9 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A5" s="21"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
@@ -1021,9 +1423,9 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A6" s="21"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
@@ -1044,9 +1446,9 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A7" s="21"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1067,9 +1469,9 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A8" s="21"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="4" t="s">
         <v>18</v>
       </c>
@@ -1090,9 +1492,9 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A9" s="21"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="4" t="s">
         <v>19</v>
       </c>
@@ -1113,9 +1515,9 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A10" s="21"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="4" t="s">
         <v>21</v>
       </c>
@@ -1136,9 +1538,9 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A11" s="21"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="4" t="s">
         <v>23</v>
       </c>
@@ -1159,9 +1561,9 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A12" s="21"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="4" t="s">
         <v>25</v>
       </c>
@@ -1182,9 +1584,9 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A13" s="21"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="4" t="s">
         <v>27</v>
       </c>
@@ -1205,11 +1607,11 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A14" s="21"/>
-      <c r="B14" s="17" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -1232,9 +1634,9 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A15" s="21"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="4" t="s">
         <v>23</v>
       </c>
@@ -1255,9 +1657,9 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A16" s="21"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="4" t="s">
         <v>12</v>
       </c>
@@ -1278,9 +1680,9 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A17" s="21"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
       <c r="D17" s="4" t="s">
         <v>14</v>
       </c>
@@ -1301,9 +1703,9 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A18" s="21"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="4" t="s">
         <v>18</v>
       </c>
@@ -1324,9 +1726,9 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A19" s="21"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="4" t="s">
         <v>21</v>
       </c>
@@ -1347,9 +1749,9 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A20" s="21"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="4" t="s">
         <v>19</v>
       </c>
@@ -1370,9 +1772,9 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A21" s="21"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="4" t="s">
         <v>25</v>
       </c>
@@ -1393,9 +1795,9 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A22" s="21"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="4" t="s">
         <v>27</v>
       </c>
@@ -1416,11 +1818,11 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A23" s="21"/>
-      <c r="B23" s="17" t="s">
+      <c r="A23" s="16"/>
+      <c r="B23" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="12" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="4" t="s">
@@ -1443,9 +1845,9 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A24" s="21"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
       <c r="D24" s="4" t="s">
         <v>12</v>
       </c>
@@ -1466,9 +1868,9 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A25" s="21"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
       <c r="D25" s="4" t="s">
         <v>14</v>
       </c>
@@ -1489,9 +1891,9 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A26" s="21"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
       <c r="D26" s="4" t="s">
         <v>16</v>
       </c>
@@ -1512,9 +1914,9 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A27" s="21"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
       <c r="D27" s="4" t="s">
         <v>18</v>
       </c>
@@ -1535,9 +1937,9 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A28" s="21"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
       <c r="D28" s="4" t="s">
         <v>19</v>
       </c>
@@ -1558,9 +1960,9 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A29" s="21"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
       <c r="D29" s="4" t="s">
         <v>21</v>
       </c>
@@ -1581,9 +1983,9 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A30" s="21"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
       <c r="D30" s="4" t="s">
         <v>25</v>
       </c>
@@ -1604,9 +2006,9 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A31" s="21"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
       <c r="D31" s="4" t="s">
         <v>27</v>
       </c>
@@ -1627,9 +2029,9 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A32" s="21"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
       <c r="D32" s="4" t="s">
         <v>23</v>
       </c>
@@ -1650,11 +2052,11 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A33" s="21"/>
-      <c r="B33" s="17" t="s">
+      <c r="A33" s="16"/>
+      <c r="B33" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="12" t="s">
         <v>36</v>
       </c>
       <c r="D33" s="4" t="s">
@@ -1677,9 +2079,9 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A34" s="21"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
       <c r="D34" s="4" t="s">
         <v>14</v>
       </c>
@@ -1700,9 +2102,9 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.4" customHeight="1">
-      <c r="A35" s="21"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="4" t="s">
         <v>38</v>
       </c>
@@ -1723,11 +2125,11 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A36" s="21"/>
-      <c r="B36" s="17" t="s">
+      <c r="A36" s="16"/>
+      <c r="B36" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D36" s="4" t="s">
@@ -1750,9 +2152,9 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A37" s="21"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
       <c r="D37" s="7" t="s">
         <v>42</v>
       </c>
@@ -1773,9 +2175,9 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A38" s="21"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
       <c r="D38" s="4" t="s">
         <v>14</v>
       </c>
@@ -1796,9 +2198,9 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A39" s="21"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
       <c r="D39" s="4" t="s">
         <v>16</v>
       </c>
@@ -1819,9 +2221,9 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A40" s="21"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
       <c r="D40" s="4" t="s">
         <v>18</v>
       </c>
@@ -1842,9 +2244,9 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A41" s="21"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
       <c r="D41" s="4" t="s">
         <v>19</v>
       </c>
@@ -1865,9 +2267,9 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A42" s="21"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
       <c r="D42" s="4" t="s">
         <v>21</v>
       </c>
@@ -1888,9 +2290,9 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A43" s="21"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
       <c r="D43" s="4" t="s">
         <v>25</v>
       </c>
@@ -1911,9 +2313,9 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A44" s="21"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
       <c r="D44" s="4" t="s">
         <v>27</v>
       </c>
@@ -1934,9 +2336,9 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A45" s="21"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
       <c r="D45" s="4" t="s">
         <v>23</v>
       </c>
@@ -1957,11 +2359,11 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A46" s="21"/>
-      <c r="B46" s="20" t="s">
+      <c r="A46" s="16"/>
+      <c r="B46" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="23" t="s">
         <v>45</v>
       </c>
       <c r="D46" s="4" t="s">
@@ -1984,9 +2386,9 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A47" s="21"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
       <c r="D47" s="4" t="s">
         <v>12</v>
       </c>
@@ -2007,9 +2409,9 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A48" s="21"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="4" t="s">
         <v>14</v>
       </c>
@@ -2030,9 +2432,9 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A49" s="21"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
       <c r="D49" s="4" t="s">
         <v>16</v>
       </c>
@@ -2053,9 +2455,9 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A50" s="21"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
       <c r="D50" s="4" t="s">
         <v>18</v>
       </c>
@@ -2076,9 +2478,9 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A51" s="21"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
       <c r="D51" s="4" t="s">
         <v>19</v>
       </c>
@@ -2099,9 +2501,9 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A52" s="21"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
       <c r="D52" s="4" t="s">
         <v>21</v>
       </c>
@@ -2122,9 +2524,9 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A53" s="21"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
       <c r="D53" s="4" t="s">
         <v>25</v>
       </c>
@@ -2145,9 +2547,9 @@
       </c>
     </row>
     <row r="54" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A54" s="21"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
       <c r="D54" s="4" t="s">
         <v>27</v>
       </c>
@@ -2168,9 +2570,9 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A55" s="22"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
       <c r="D55" s="4" t="s">
         <v>23</v>
       </c>
@@ -2191,13 +2593,13 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="17" t="s">
+      <c r="B56" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="12" t="s">
         <v>49</v>
       </c>
       <c r="D56" s="4" t="s">
@@ -2220,9 +2622,9 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A57" s="21"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
       <c r="D57" s="4" t="s">
         <v>50</v>
       </c>
@@ -2243,9 +2645,9 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A58" s="21"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
+      <c r="A58" s="16"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
       <c r="D58" s="4" t="s">
         <v>25</v>
       </c>
@@ -2266,9 +2668,9 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A59" s="21"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
       <c r="D59" s="4" t="s">
         <v>51</v>
       </c>
@@ -2289,11 +2691,11 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A60" s="21"/>
-      <c r="B60" s="17" t="s">
+      <c r="A60" s="16"/>
+      <c r="B60" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="12" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="4" t="s">
@@ -2316,9 +2718,9 @@
       </c>
     </row>
     <row r="61" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A61" s="21"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
+      <c r="A61" s="16"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
       <c r="D61" s="4" t="s">
         <v>12</v>
       </c>
@@ -2339,9 +2741,9 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A62" s="21"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
+      <c r="A62" s="16"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
       <c r="D62" s="4" t="s">
         <v>23</v>
       </c>
@@ -2362,9 +2764,9 @@
       </c>
     </row>
     <row r="63" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A63" s="21"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
+      <c r="A63" s="16"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
       <c r="D63" s="4" t="s">
         <v>14</v>
       </c>
@@ -2385,9 +2787,9 @@
       </c>
     </row>
     <row r="64" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A64" s="21"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
+      <c r="A64" s="16"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
       <c r="D64" s="4" t="s">
         <v>19</v>
       </c>
@@ -2408,9 +2810,9 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A65" s="21"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
+      <c r="A65" s="16"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
       <c r="D65" s="4" t="s">
         <v>21</v>
       </c>
@@ -2431,9 +2833,9 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A66" s="21"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
+      <c r="A66" s="16"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
       <c r="D66" s="4" t="s">
         <v>25</v>
       </c>
@@ -2454,9 +2856,9 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="28.8" customHeight="1">
-      <c r="A67" s="21"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
+      <c r="A67" s="16"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
       <c r="D67" s="4" t="s">
         <v>18</v>
       </c>
@@ -2477,9 +2879,9 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A68" s="22"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
+      <c r="A68" s="17"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
       <c r="D68" s="4" t="s">
         <v>27</v>
       </c>
@@ -2500,7 +2902,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" ht="28.8" customHeight="1">
-      <c r="A69" s="20" t="s">
+      <c r="A69" s="23" t="s">
         <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -2529,11 +2931,11 @@
       </c>
     </row>
     <row r="70" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A70" s="21"/>
-      <c r="B70" s="23" t="s">
+      <c r="A70" s="16"/>
+      <c r="B70" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C70" s="20" t="s">
+      <c r="C70" s="23" t="s">
         <v>58</v>
       </c>
       <c r="D70" s="4" t="s">
@@ -2556,9 +2958,9 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A71" s="21"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="21"/>
+      <c r="A71" s="16"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
       <c r="D71" s="4" t="s">
         <v>12</v>
       </c>
@@ -2579,9 +2981,9 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A72" s="21"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="21"/>
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
       <c r="D72" s="4" t="s">
         <v>14</v>
       </c>
@@ -2602,9 +3004,9 @@
       </c>
     </row>
     <row r="73" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A73" s="21"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="21"/>
+      <c r="A73" s="16"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
       <c r="D73" s="4" t="s">
         <v>18</v>
       </c>
@@ -2625,9 +3027,9 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A74" s="21"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="21"/>
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
       <c r="D74" s="4" t="s">
         <v>16</v>
       </c>
@@ -2648,9 +3050,9 @@
       </c>
     </row>
     <row r="75" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A75" s="21"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="21"/>
+      <c r="A75" s="16"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
       <c r="D75" s="4" t="s">
         <v>21</v>
       </c>
@@ -2671,9 +3073,9 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A76" s="21"/>
-      <c r="B76" s="21"/>
-      <c r="C76" s="21"/>
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
       <c r="D76" s="4" t="s">
         <v>25</v>
       </c>
@@ -2694,9 +3096,9 @@
       </c>
     </row>
     <row r="77" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A77" s="21"/>
-      <c r="B77" s="21"/>
-      <c r="C77" s="21"/>
+      <c r="A77" s="16"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
       <c r="D77" s="4" t="s">
         <v>19</v>
       </c>
@@ -2717,9 +3119,9 @@
       </c>
     </row>
     <row r="78" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A78" s="21"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="21"/>
+      <c r="A78" s="16"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
       <c r="D78" s="4" t="s">
         <v>23</v>
       </c>
@@ -2740,9 +3142,9 @@
       </c>
     </row>
     <row r="79" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A79" s="21"/>
-      <c r="B79" s="21"/>
-      <c r="C79" s="21"/>
+      <c r="A79" s="16"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
       <c r="D79" s="4" t="s">
         <v>51</v>
       </c>
@@ -2763,9 +3165,9 @@
       </c>
     </row>
     <row r="80" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A80" s="21"/>
-      <c r="B80" s="21"/>
-      <c r="C80" s="21"/>
+      <c r="A80" s="16"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
       <c r="D80" s="4" t="s">
         <v>50</v>
       </c>
@@ -2786,9 +3188,9 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A81" s="21"/>
-      <c r="B81" s="22"/>
-      <c r="C81" s="22"/>
+      <c r="A81" s="16"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
       <c r="D81" s="4" t="s">
         <v>27</v>
       </c>
@@ -2809,11 +3211,11 @@
       </c>
     </row>
     <row r="82" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A82" s="21"/>
-      <c r="B82" s="17" t="s">
+      <c r="A82" s="16"/>
+      <c r="B82" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C82" s="20" t="s">
+      <c r="C82" s="23" t="s">
         <v>58</v>
       </c>
       <c r="D82" s="4" t="s">
@@ -2836,9 +3238,9 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A83" s="21"/>
-      <c r="B83" s="18"/>
-      <c r="C83" s="18"/>
+      <c r="A83" s="16"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="13"/>
       <c r="D83" s="4" t="s">
         <v>12</v>
       </c>
@@ -2859,9 +3261,9 @@
       </c>
     </row>
     <row r="84" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A84" s="21"/>
-      <c r="B84" s="18"/>
-      <c r="C84" s="18"/>
+      <c r="A84" s="16"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
       <c r="D84" s="4" t="s">
         <v>14</v>
       </c>
@@ -2882,9 +3284,9 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A85" s="21"/>
-      <c r="B85" s="18"/>
-      <c r="C85" s="18"/>
+      <c r="A85" s="16"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
       <c r="D85" s="4" t="s">
         <v>18</v>
       </c>
@@ -2905,9 +3307,9 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="14.4" customHeight="1">
-      <c r="A86" s="21"/>
-      <c r="B86" s="18"/>
-      <c r="C86" s="18"/>
+      <c r="A86" s="16"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
       <c r="D86" s="4" t="s">
         <v>16</v>
       </c>
@@ -2928,9 +3330,9 @@
       </c>
     </row>
     <row r="87" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A87" s="21"/>
-      <c r="B87" s="18"/>
-      <c r="C87" s="18"/>
+      <c r="A87" s="16"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
       <c r="D87" s="4" t="s">
         <v>19</v>
       </c>
@@ -2951,9 +3353,9 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A88" s="21"/>
-      <c r="B88" s="18"/>
-      <c r="C88" s="18"/>
+      <c r="A88" s="16"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="13"/>
       <c r="D88" s="7" t="s">
         <v>60</v>
       </c>
@@ -2974,9 +3376,9 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A89" s="21"/>
-      <c r="B89" s="18"/>
-      <c r="C89" s="18"/>
+      <c r="A89" s="16"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="13"/>
       <c r="D89" s="4" t="s">
         <v>25</v>
       </c>
@@ -2997,9 +3399,9 @@
       </c>
     </row>
     <row r="90" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A90" s="21"/>
-      <c r="B90" s="18"/>
-      <c r="C90" s="18"/>
+      <c r="A90" s="16"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="13"/>
       <c r="D90" s="4" t="s">
         <v>27</v>
       </c>
@@ -3020,9 +3422,9 @@
       </c>
     </row>
     <row r="91" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A91" s="21"/>
-      <c r="B91" s="18"/>
-      <c r="C91" s="18"/>
+      <c r="A91" s="16"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="13"/>
       <c r="D91" s="4" t="s">
         <v>50</v>
       </c>
@@ -3043,9 +3445,9 @@
       </c>
     </row>
     <row r="92" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A92" s="21"/>
-      <c r="B92" s="18"/>
-      <c r="C92" s="18"/>
+      <c r="A92" s="16"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="13"/>
       <c r="D92" s="4" t="s">
         <v>23</v>
       </c>
@@ -3066,9 +3468,9 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="22"/>
-      <c r="B93" s="19"/>
-      <c r="C93" s="19"/>
+      <c r="A93" s="17"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
       <c r="D93" s="4" t="s">
         <v>51</v>
       </c>
@@ -3090,15 +3492,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C60:C68"/>
-    <mergeCell ref="A4:A55"/>
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="C4:C13"/>
-    <mergeCell ref="B14:B22"/>
-    <mergeCell ref="C14:C22"/>
-    <mergeCell ref="B23:B32"/>
-    <mergeCell ref="C23:C32"/>
-    <mergeCell ref="B33:B35"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="C33:C35"/>
@@ -3115,9 +3508,437 @@
     <mergeCell ref="B56:B59"/>
     <mergeCell ref="C56:C59"/>
     <mergeCell ref="B60:B68"/>
+    <mergeCell ref="C60:C68"/>
+    <mergeCell ref="A4:A55"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="C4:C13"/>
+    <mergeCell ref="B14:B22"/>
+    <mergeCell ref="C14:C22"/>
+    <mergeCell ref="B23:B32"/>
+    <mergeCell ref="C23:C32"/>
+    <mergeCell ref="B33:B35"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31BCFEAA-0F46-4439-9315-5231A2373E93}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" thickBot="1">
+      <c r="A1" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+    </row>
+    <row r="2" spans="1:6" ht="30" thickBot="1">
+      <c r="A2" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="29.4" thickBot="1">
+      <c r="A3" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="25">
+        <v>6</v>
+      </c>
+      <c r="E3" s="25">
+        <v>77.7</v>
+      </c>
+      <c r="F3" s="25">
+        <v>76.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="29.4" thickBot="1">
+      <c r="A4" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="25">
+        <v>6</v>
+      </c>
+      <c r="E4" s="25">
+        <v>81.2</v>
+      </c>
+      <c r="F4" s="25">
+        <v>79.900000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1">
+      <c r="A5" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="25">
+        <v>2</v>
+      </c>
+      <c r="E5" s="25">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="F5" s="25">
+        <v>70.099999999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1">
+      <c r="A6" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="25">
+        <v>1</v>
+      </c>
+      <c r="E6" s="25">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="F6" s="25">
+        <v>61.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1">
+      <c r="A7" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="25">
+        <v>1</v>
+      </c>
+      <c r="E7" s="25">
+        <v>77.3</v>
+      </c>
+      <c r="F7" s="25">
+        <v>68.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="29.4" thickBot="1">
+      <c r="A8" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="25">
+        <v>6</v>
+      </c>
+      <c r="E8" s="25">
+        <v>79.7</v>
+      </c>
+      <c r="F8" s="25">
+        <v>78.400000000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="29.4" thickBot="1">
+      <c r="A9" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="E9" s="25">
+        <v>77</v>
+      </c>
+      <c r="F9" s="25">
+        <v>60.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="29.4" thickBot="1">
+      <c r="A10" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="E10" s="25">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="F10" s="25">
+        <v>60.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="29.4" thickBot="1">
+      <c r="A11" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="25">
+        <v>1</v>
+      </c>
+      <c r="E11" s="25">
+        <v>61.3</v>
+      </c>
+      <c r="F11" s="25">
+        <v>52.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BBCFBE-65A2-498A-8EDB-264CB021CEDC}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17.399999999999999">
+      <c r="A1" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+    </row>
+    <row r="2" spans="1:7" ht="13.8" customHeight="1">
+      <c r="A2" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="13.8" customHeight="1">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15">
+      <c r="A4" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="28">
+        <v>1</v>
+      </c>
+      <c r="E4" s="28">
+        <v>12.5</v>
+      </c>
+      <c r="F4" s="28">
+        <v>1</v>
+      </c>
+      <c r="G4" s="28">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDCB07C-8C1F-43E7-B393-6D36152A9483}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18" thickBot="1">
+      <c r="A1" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+    </row>
+    <row r="2" spans="1:8" ht="44.4" thickBot="1">
+      <c r="A2" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30.6" thickBot="1">
+      <c r="A3" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="31">
+        <v>50</v>
+      </c>
+      <c r="E3" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" s="31">
+        <v>4.7</v>
+      </c>
+      <c r="H3" s="31">
+        <v>5.8999999999999998E-5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pv\Desktop\EHS_Scrutinizer_Preview\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79093996-F12C-4AC6-B518-12E520BBE41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76524B35-D41C-4EF7-AAB8-1E958F730A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="检测结果-化学因素" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="检测结果-高温" sheetId="3" r:id="rId3"/>
     <sheet name="检测结果-工频电场" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'检测结果-化学因素'!$A$3:$I$93</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="110">
   <si>
     <r>
       <rPr>
@@ -638,7 +641,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -963,22 +966,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -996,38 +1002,35 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1311,37 +1314,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G85" sqref="G85"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.399999999999999">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1">
-      <c r="F2" s="20" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22"/>
-    </row>
-    <row r="3" spans="1:9" ht="13.8" customHeight="1">
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23"/>
+    </row>
+    <row r="3" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -1370,14 +1373,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="24" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -1399,10 +1402,10 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
+    <row r="5" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="28"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
@@ -1422,10 +1425,10 @@
         <v>350</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A6" s="16"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
+    <row r="6" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="28"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
@@ -1445,10 +1448,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
+    <row r="7" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="28"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1468,10 +1471,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A8" s="16"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
+    <row r="8" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="28"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="4" t="s">
         <v>18</v>
       </c>
@@ -1491,10 +1494,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
+    <row r="9" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="28"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="4" t="s">
         <v>19</v>
       </c>
@@ -1514,10 +1517,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A10" s="16"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
+    <row r="10" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="4" t="s">
         <v>21</v>
       </c>
@@ -1537,10 +1540,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A11" s="16"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
+    <row r="11" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
       <c r="D11" s="4" t="s">
         <v>23</v>
       </c>
@@ -1560,10 +1563,10 @@
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A12" s="16"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
+    <row r="12" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="4" t="s">
         <v>25</v>
       </c>
@@ -1583,10 +1586,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
+    <row r="13" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="4" t="s">
         <v>27</v>
       </c>
@@ -1606,12 +1609,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A14" s="16"/>
-      <c r="B14" s="12" t="s">
+    <row r="14" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="28"/>
+      <c r="B14" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -1633,10 +1636,10 @@
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A15" s="16"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
+    <row r="15" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="28"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="4" t="s">
         <v>23</v>
       </c>
@@ -1656,10 +1659,10 @@
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A16" s="16"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
+    <row r="16" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="28"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="4" t="s">
         <v>12</v>
       </c>
@@ -1679,10 +1682,10 @@
         <v>350</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A17" s="16"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
+    <row r="17" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="28"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="4" t="s">
         <v>14</v>
       </c>
@@ -1702,10 +1705,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A18" s="16"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
+    <row r="18" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="28"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="4" t="s">
         <v>18</v>
       </c>
@@ -1725,10 +1728,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A19" s="16"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
+    <row r="19" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="28"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="4" t="s">
         <v>21</v>
       </c>
@@ -1748,10 +1751,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A20" s="16"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
+    <row r="20" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="28"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
       <c r="D20" s="4" t="s">
         <v>19</v>
       </c>
@@ -1771,10 +1774,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A21" s="16"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
+    <row r="21" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="28"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="4" t="s">
         <v>25</v>
       </c>
@@ -1794,10 +1797,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A22" s="16"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
+    <row r="22" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="28"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
       <c r="D22" s="4" t="s">
         <v>27</v>
       </c>
@@ -1817,12 +1820,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A23" s="16"/>
-      <c r="B23" s="12" t="s">
+    <row r="23" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="28"/>
+      <c r="B23" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="24" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="4" t="s">
@@ -1844,10 +1847,10 @@
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A24" s="16"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
+    <row r="24" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="28"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="4" t="s">
         <v>12</v>
       </c>
@@ -1867,10 +1870,10 @@
         <v>350</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A25" s="16"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
+    <row r="25" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="28"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
       <c r="D25" s="4" t="s">
         <v>14</v>
       </c>
@@ -1890,10 +1893,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A26" s="16"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
+    <row r="26" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="28"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
       <c r="D26" s="4" t="s">
         <v>16</v>
       </c>
@@ -1913,10 +1916,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A27" s="16"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
+    <row r="27" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="28"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
       <c r="D27" s="4" t="s">
         <v>18</v>
       </c>
@@ -1936,10 +1939,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A28" s="16"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
+    <row r="28" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="28"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="4" t="s">
         <v>19</v>
       </c>
@@ -1959,10 +1962,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A29" s="16"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
+    <row r="29" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="28"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
       <c r="D29" s="4" t="s">
         <v>21</v>
       </c>
@@ -1982,10 +1985,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A30" s="16"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
+    <row r="30" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="28"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
       <c r="D30" s="4" t="s">
         <v>25</v>
       </c>
@@ -2005,10 +2008,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A31" s="16"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
+    <row r="31" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="28"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
       <c r="D31" s="4" t="s">
         <v>27</v>
       </c>
@@ -2028,10 +2031,10 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A32" s="16"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
+    <row r="32" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="28"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
       <c r="D32" s="4" t="s">
         <v>23</v>
       </c>
@@ -2051,12 +2054,12 @@
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A33" s="16"/>
-      <c r="B33" s="12" t="s">
+    <row r="33" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="28"/>
+      <c r="B33" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="24" t="s">
         <v>36</v>
       </c>
       <c r="D33" s="4" t="s">
@@ -2078,10 +2081,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A34" s="16"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
+    <row r="34" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="28"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
       <c r="D34" s="4" t="s">
         <v>14</v>
       </c>
@@ -2101,10 +2104,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="14.4" customHeight="1">
-      <c r="A35" s="16"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
+    <row r="35" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="28"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
       <c r="D35" s="4" t="s">
         <v>38</v>
       </c>
@@ -2124,12 +2127,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A36" s="16"/>
-      <c r="B36" s="12" t="s">
+    <row r="36" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="28"/>
+      <c r="B36" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="24" t="s">
         <v>40</v>
       </c>
       <c r="D36" s="4" t="s">
@@ -2151,10 +2154,10 @@
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A37" s="16"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
+    <row r="37" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="28"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
       <c r="D37" s="7" t="s">
         <v>42</v>
       </c>
@@ -2174,10 +2177,10 @@
         <v>350</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A38" s="16"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
+    <row r="38" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="28"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="4" t="s">
         <v>14</v>
       </c>
@@ -2197,10 +2200,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A39" s="16"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
+    <row r="39" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="28"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
       <c r="D39" s="4" t="s">
         <v>16</v>
       </c>
@@ -2220,10 +2223,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A40" s="16"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
+    <row r="40" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="28"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
       <c r="D40" s="4" t="s">
         <v>18</v>
       </c>
@@ -2243,10 +2246,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A41" s="16"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
+    <row r="41" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="28"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
       <c r="D41" s="4" t="s">
         <v>19</v>
       </c>
@@ -2266,10 +2269,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A42" s="16"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
+    <row r="42" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="28"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
       <c r="D42" s="4" t="s">
         <v>21</v>
       </c>
@@ -2289,10 +2292,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A43" s="16"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
+    <row r="43" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="28"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
       <c r="D43" s="4" t="s">
         <v>25</v>
       </c>
@@ -2312,10 +2315,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A44" s="16"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
+    <row r="44" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="28"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
       <c r="D44" s="4" t="s">
         <v>27</v>
       </c>
@@ -2335,10 +2338,10 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A45" s="16"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
+    <row r="45" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="28"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
       <c r="D45" s="4" t="s">
         <v>23</v>
       </c>
@@ -2358,12 +2361,12 @@
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A46" s="16"/>
-      <c r="B46" s="23" t="s">
+    <row r="46" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="28"/>
+      <c r="B46" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C46" s="27" t="s">
         <v>45</v>
       </c>
       <c r="D46" s="4" t="s">
@@ -2385,10 +2388,10 @@
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A47" s="16"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
+    <row r="47" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="28"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
       <c r="D47" s="4" t="s">
         <v>12</v>
       </c>
@@ -2408,10 +2411,10 @@
         <v>350</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
+    <row r="48" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="28"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
       <c r="D48" s="4" t="s">
         <v>14</v>
       </c>
@@ -2431,10 +2434,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A49" s="16"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
+    <row r="49" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="28"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
       <c r="D49" s="4" t="s">
         <v>16</v>
       </c>
@@ -2454,10 +2457,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
+    <row r="50" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="28"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
       <c r="D50" s="4" t="s">
         <v>18</v>
       </c>
@@ -2477,10 +2480,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A51" s="16"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
+    <row r="51" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="28"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
       <c r="D51" s="4" t="s">
         <v>19</v>
       </c>
@@ -2500,10 +2503,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A52" s="16"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
+    <row r="52" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="28"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
       <c r="D52" s="4" t="s">
         <v>21</v>
       </c>
@@ -2523,10 +2526,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A53" s="16"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
+    <row r="53" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="28"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
       <c r="D53" s="4" t="s">
         <v>25</v>
       </c>
@@ -2546,10 +2549,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A54" s="16"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
+    <row r="54" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="28"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
       <c r="D54" s="4" t="s">
         <v>27</v>
       </c>
@@ -2569,10 +2572,10 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A55" s="17"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
+    <row r="55" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="29"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
       <c r="D55" s="4" t="s">
         <v>23</v>
       </c>
@@ -2592,14 +2595,14 @@
         <v>300</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A56" s="15" t="s">
+    <row r="56" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C56" s="24" t="s">
         <v>49</v>
       </c>
       <c r="D56" s="4" t="s">
@@ -2621,10 +2624,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A57" s="16"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
+    <row r="57" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="28"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
       <c r="D57" s="4" t="s">
         <v>50</v>
       </c>
@@ -2644,10 +2647,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A58" s="16"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
+    <row r="58" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="28"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
       <c r="D58" s="4" t="s">
         <v>25</v>
       </c>
@@ -2667,10 +2670,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A59" s="16"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
+    <row r="59" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="28"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
       <c r="D59" s="4" t="s">
         <v>51</v>
       </c>
@@ -2680,8 +2683,8 @@
       <c r="F59" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G59" s="5" t="s">
-        <v>64</v>
+      <c r="G59" s="5">
+        <v>30</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>64</v>
@@ -2690,12 +2693,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A60" s="16"/>
-      <c r="B60" s="12" t="s">
+    <row r="60" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="28"/>
+      <c r="B60" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C60" s="24" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="4" t="s">
@@ -2717,10 +2720,10 @@
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A61" s="16"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
+    <row r="61" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="28"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
       <c r="D61" s="4" t="s">
         <v>12</v>
       </c>
@@ -2740,10 +2743,10 @@
         <v>350</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A62" s="16"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
+    <row r="62" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="28"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
       <c r="D62" s="4" t="s">
         <v>23</v>
       </c>
@@ -2763,10 +2766,10 @@
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A63" s="16"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
+    <row r="63" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="28"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
       <c r="D63" s="4" t="s">
         <v>14</v>
       </c>
@@ -2786,10 +2789,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A64" s="16"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
+    <row r="64" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="28"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
       <c r="D64" s="4" t="s">
         <v>19</v>
       </c>
@@ -2809,10 +2812,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A65" s="16"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
+    <row r="65" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="28"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
       <c r="D65" s="4" t="s">
         <v>21</v>
       </c>
@@ -2832,10 +2835,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A66" s="16"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="13"/>
+    <row r="66" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="28"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
       <c r="D66" s="4" t="s">
         <v>25</v>
       </c>
@@ -2855,10 +2858,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="28.8" customHeight="1">
-      <c r="A67" s="16"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
+    <row r="67" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="28"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
       <c r="D67" s="4" t="s">
         <v>18</v>
       </c>
@@ -2878,10 +2881,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A68" s="17"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
+    <row r="68" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="29"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="26"/>
       <c r="D68" s="4" t="s">
         <v>27</v>
       </c>
@@ -2901,8 +2904,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="28.8" customHeight="1">
-      <c r="A69" s="23" t="s">
+    <row r="69" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="27" t="s">
         <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -2930,12 +2933,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A70" s="16"/>
-      <c r="B70" s="15" t="s">
+    <row r="70" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="28"/>
+      <c r="B70" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C70" s="23" t="s">
+      <c r="C70" s="27" t="s">
         <v>58</v>
       </c>
       <c r="D70" s="4" t="s">
@@ -2957,10 +2960,10 @@
         <v>300</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A71" s="16"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
+    <row r="71" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="28"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="28"/>
       <c r="D71" s="4" t="s">
         <v>12</v>
       </c>
@@ -2980,10 +2983,10 @@
         <v>350</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A72" s="16"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
+    <row r="72" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="28"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="28"/>
       <c r="D72" s="4" t="s">
         <v>14</v>
       </c>
@@ -3003,10 +3006,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A73" s="16"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
+    <row r="73" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="28"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="28"/>
       <c r="D73" s="4" t="s">
         <v>18</v>
       </c>
@@ -3026,10 +3029,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A74" s="16"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
+    <row r="74" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="28"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="28"/>
       <c r="D74" s="4" t="s">
         <v>16</v>
       </c>
@@ -3049,10 +3052,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A75" s="16"/>
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
+    <row r="75" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="28"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="28"/>
       <c r="D75" s="4" t="s">
         <v>21</v>
       </c>
@@ -3072,10 +3075,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A76" s="16"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
+    <row r="76" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="28"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="28"/>
       <c r="D76" s="4" t="s">
         <v>25</v>
       </c>
@@ -3095,10 +3098,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A77" s="16"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
+    <row r="77" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="28"/>
+      <c r="B77" s="28"/>
+      <c r="C77" s="28"/>
       <c r="D77" s="4" t="s">
         <v>19</v>
       </c>
@@ -3118,10 +3121,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A78" s="16"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
+    <row r="78" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="28"/>
+      <c r="B78" s="28"/>
+      <c r="C78" s="28"/>
       <c r="D78" s="4" t="s">
         <v>23</v>
       </c>
@@ -3141,10 +3144,10 @@
         <v>300</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A79" s="16"/>
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
+    <row r="79" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="28"/>
+      <c r="B79" s="28"/>
+      <c r="C79" s="28"/>
       <c r="D79" s="4" t="s">
         <v>51</v>
       </c>
@@ -3154,8 +3157,8 @@
       <c r="F79" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G79" s="5" t="s">
-        <v>64</v>
+      <c r="G79" s="5">
+        <v>30</v>
       </c>
       <c r="H79" s="5" t="s">
         <v>64</v>
@@ -3164,10 +3167,10 @@
         <v>64</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A80" s="16"/>
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
+    <row r="80" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="28"/>
+      <c r="B80" s="28"/>
+      <c r="C80" s="28"/>
       <c r="D80" s="4" t="s">
         <v>50</v>
       </c>
@@ -3187,10 +3190,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A81" s="16"/>
-      <c r="B81" s="17"/>
-      <c r="C81" s="17"/>
+    <row r="81" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="28"/>
+      <c r="B81" s="29"/>
+      <c r="C81" s="29"/>
       <c r="D81" s="4" t="s">
         <v>27</v>
       </c>
@@ -3210,12 +3213,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A82" s="16"/>
-      <c r="B82" s="12" t="s">
+    <row r="82" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="28"/>
+      <c r="B82" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C82" s="23" t="s">
+      <c r="C82" s="27" t="s">
         <v>58</v>
       </c>
       <c r="D82" s="4" t="s">
@@ -3237,10 +3240,10 @@
         <v>300</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A83" s="16"/>
-      <c r="B83" s="13"/>
-      <c r="C83" s="13"/>
+    <row r="83" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="28"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="25"/>
       <c r="D83" s="4" t="s">
         <v>12</v>
       </c>
@@ -3260,10 +3263,10 @@
         <v>350</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A84" s="16"/>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
+    <row r="84" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="28"/>
+      <c r="B84" s="25"/>
+      <c r="C84" s="25"/>
       <c r="D84" s="4" t="s">
         <v>14</v>
       </c>
@@ -3283,10 +3286,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A85" s="16"/>
-      <c r="B85" s="13"/>
-      <c r="C85" s="13"/>
+    <row r="85" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="28"/>
+      <c r="B85" s="25"/>
+      <c r="C85" s="25"/>
       <c r="D85" s="4" t="s">
         <v>18</v>
       </c>
@@ -3306,10 +3309,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="14.4" customHeight="1">
-      <c r="A86" s="16"/>
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
+    <row r="86" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="28"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="25"/>
       <c r="D86" s="4" t="s">
         <v>16</v>
       </c>
@@ -3329,10 +3332,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A87" s="16"/>
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
+    <row r="87" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="28"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="25"/>
       <c r="D87" s="4" t="s">
         <v>19</v>
       </c>
@@ -3352,10 +3355,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A88" s="16"/>
-      <c r="B88" s="13"/>
-      <c r="C88" s="13"/>
+    <row r="88" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="28"/>
+      <c r="B88" s="25"/>
+      <c r="C88" s="25"/>
       <c r="D88" s="7" t="s">
         <v>60</v>
       </c>
@@ -3375,10 +3378,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A89" s="16"/>
-      <c r="B89" s="13"/>
-      <c r="C89" s="13"/>
+    <row r="89" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="28"/>
+      <c r="B89" s="25"/>
+      <c r="C89" s="25"/>
       <c r="D89" s="4" t="s">
         <v>25</v>
       </c>
@@ -3398,10 +3401,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A90" s="16"/>
-      <c r="B90" s="13"/>
-      <c r="C90" s="13"/>
+    <row r="90" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="28"/>
+      <c r="B90" s="25"/>
+      <c r="C90" s="25"/>
       <c r="D90" s="4" t="s">
         <v>27</v>
       </c>
@@ -3421,10 +3424,10 @@
         <v>65</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A91" s="16"/>
-      <c r="B91" s="13"/>
-      <c r="C91" s="13"/>
+    <row r="91" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="28"/>
+      <c r="B91" s="25"/>
+      <c r="C91" s="25"/>
       <c r="D91" s="4" t="s">
         <v>50</v>
       </c>
@@ -3444,10 +3447,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="13.8" customHeight="1">
-      <c r="A92" s="16"/>
-      <c r="B92" s="13"/>
-      <c r="C92" s="13"/>
+    <row r="92" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="28"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="25"/>
       <c r="D92" s="4" t="s">
         <v>23</v>
       </c>
@@ -3467,10 +3470,10 @@
         <v>300</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
-      <c r="A93" s="17"/>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="29"/>
+      <c r="B93" s="26"/>
+      <c r="C93" s="26"/>
       <c r="D93" s="4" t="s">
         <v>51</v>
       </c>
@@ -3480,8 +3483,8 @@
       <c r="F93" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G93" s="5" t="s">
-        <v>64</v>
+      <c r="G93" s="5">
+        <v>30</v>
       </c>
       <c r="H93" s="5" t="s">
         <v>64</v>
@@ -3491,7 +3494,17 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A3:I93" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="25">
+    <mergeCell ref="C60:C68"/>
+    <mergeCell ref="A4:A55"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="C4:C13"/>
+    <mergeCell ref="B14:B22"/>
+    <mergeCell ref="C14:C22"/>
+    <mergeCell ref="B23:B32"/>
+    <mergeCell ref="C23:C32"/>
+    <mergeCell ref="B33:B35"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="C33:C35"/>
@@ -3508,15 +3521,6 @@
     <mergeCell ref="B56:B59"/>
     <mergeCell ref="C56:C59"/>
     <mergeCell ref="B60:B68"/>
-    <mergeCell ref="C60:C68"/>
-    <mergeCell ref="A4:A55"/>
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="C4:C13"/>
-    <mergeCell ref="B14:B22"/>
-    <mergeCell ref="C14:C22"/>
-    <mergeCell ref="B23:B32"/>
-    <mergeCell ref="C23:C32"/>
-    <mergeCell ref="B33:B35"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3532,7 +3536,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
@@ -3540,213 +3544,213 @@
     <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" thickBot="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-    </row>
-    <row r="2" spans="1:6" ht="30" thickBot="1">
-      <c r="A2" s="25" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+    </row>
+    <row r="2" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="29.4" thickBot="1">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="12">
         <v>6</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="12">
         <v>77.7</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="12">
         <v>76.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="29.4" thickBot="1">
-      <c r="A4" s="25" t="s">
+    <row r="4" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="12">
         <v>6</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="12">
         <v>81.2</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="12">
         <v>79.900000000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1">
-      <c r="A5" s="25" t="s">
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="12">
         <v>2</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="12">
         <v>76.099999999999994</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="12">
         <v>70.099999999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1">
-      <c r="A6" s="25" t="s">
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="12">
         <v>1</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="12">
         <v>70.400000000000006</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="12">
         <v>61.4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1">
-      <c r="A7" s="25" t="s">
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="12">
         <v>1</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="12">
         <v>77.3</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="12">
         <v>68.2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="29.4" thickBot="1">
-      <c r="A8" s="25" t="s">
+    <row r="8" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="12">
         <v>6</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="12">
         <v>79.7</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="12">
         <v>78.400000000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="29.4" thickBot="1">
-      <c r="A9" s="25" t="s">
+    <row r="9" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="12">
         <v>0.1</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="12">
         <v>77</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="12">
         <v>60.7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="29.4" thickBot="1">
-      <c r="A10" s="25" t="s">
+    <row r="10" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="12">
         <v>0.1</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="12">
         <v>76.400000000000006</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="12">
         <v>60.7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="29.4" thickBot="1">
-      <c r="A11" s="25" t="s">
+    <row r="11" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="12">
         <v>1</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="12">
         <v>61.3</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="12">
         <v>52.3</v>
       </c>
     </row>
@@ -3767,77 +3771,77 @@
       <selection activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.88671875" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.399999999999999">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-    </row>
-    <row r="2" spans="1:7" ht="13.8" customHeight="1">
-      <c r="A2" s="26" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+    </row>
+    <row r="2" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="13" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.8" customHeight="1">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="27" t="s">
+    <row r="3" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="13" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="14">
         <v>1</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="14">
         <v>12.5</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="14">
         <v>1</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="14">
         <v>18</v>
       </c>
     </row>
@@ -3860,77 +3864,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDCB07C-8C1F-43E7-B393-6D36152A9483}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="A2" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5546875" customWidth="1"/>
     <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" thickBot="1">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-    </row>
-    <row r="2" spans="1:8" ht="44.4" thickBot="1">
-      <c r="A2" s="30" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+    </row>
+    <row r="2" spans="1:8" ht="43.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="18" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30.6" thickBot="1">
-      <c r="A3" s="31" t="s">
+    <row r="3" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="16">
         <v>50</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="16">
         <v>0.1</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G3" s="16">
         <v>4.7</v>
       </c>
-      <c r="H3" s="31">
+      <c r="H3" s="16">
         <v>5.8999999999999998E-5</v>
       </c>
     </row>
@@ -3940,5 +3944,6 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>